--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfranke\Documents\projects\energienet_mtb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfranke\Documents\projects\MTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62023D11-7924-4292-98EA-9107E76EC3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8DE80-7DE6-4879-8A7C-DB1C8EC403F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -2528,7 +2528,7 @@
     <t>an intermediate short-circuit level between the minimum and the maximum short-circuit level. If the tuning parameters are not needed, leaving it blank will result in the MTB omitting them from the simulation.</t>
   </si>
   <si>
-    <t>getting_started</t>
+    <t>energienet_own_example</t>
   </si>
 </sst>
 </file>
@@ -4635,8 +4635,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="39">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>4</v>
@@ -7054,9 +7054,9 @@
   </sheetPr>
   <dimension ref="A1:CN196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="156" t="b">
         <v>0</v>
@@ -8584,7 +8584,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="156" t="b">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="156" t="b">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="156" t="b">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>50</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="N28" s="107">
         <v>-1</v>
@@ -14726,7 +14726,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="156" t="b">
         <v>0</v>
@@ -37176,7 +37176,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfranke\Documents\projects\MTB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B8DE80-7DE6-4879-8A7C-DB1C8EC403F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9E2D0-F11B-40F5-B687-BF370BAEE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -4078,7 +4078,18 @@
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4635,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7054,9 +7065,9 @@
   </sheetPr>
   <dimension ref="A1:CN196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,7 +8889,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="156" t="b">
         <v>0</v>
@@ -11249,7 +11260,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="156" t="b">
         <v>0</v>
@@ -11910,7 +11921,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="156" t="b">
         <v>0</v>
@@ -12974,7 +12985,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="156" t="b">
         <v>0</v>
@@ -13028,7 +13039,6 @@
       <c r="S55" s="5">
         <v>0.2</v>
       </c>
-      <c r="T55" s="94"/>
       <c r="U55" s="106" t="s">
         <v>114</v>
       </c>
@@ -13671,7 +13681,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="156" t="b">
         <v>0</v>
@@ -14726,7 +14736,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="156" t="b">
         <v>0</v>
@@ -17233,7 +17243,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="156" t="b">
         <v>0</v>
@@ -17792,7 +17802,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="156" t="b">
         <v>0</v>
@@ -24112,6 +24122,11 @@
     <mergeCell ref="BA1:BD1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -29451,7 +29466,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36117,7 +36132,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37176,7 +37191,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
